--- a/docs/ST1/ST1_08.11.2024_output.xlsx
+++ b/docs/ST1/ST1_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731618791.8929358</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731618795.6812549</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731618791.8929358.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731618795.6812549.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7137</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7140</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-3</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731618803.2443314</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731618808.3366313</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731618803.2443314.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731618808.3366313.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7100.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7100</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731618809.8295162</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731618811.7725842</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731618809.8295162.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731618811.7725842.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7102</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7098</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-4</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731618811.7885075</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731618814.913514</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731618811.7885075.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731618814.913514.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7098</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7092.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>5.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731618820.6528456</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731618823.5202663</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618820.6528456.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618823.5202663.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>474</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>475.05</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.050000000000011</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731618828.2678163</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731618830.3576224</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618828.2678163.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618830.3576224.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>473.65</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>474</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731618830.3745778</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731618831.7720745</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618830.3745778.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618831.7720745.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>474</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>474.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731618831.7890286</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731618833.2935154</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618831.7890286.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618833.2935154.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>474.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>474.3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731618833.31047</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731618835.5661001</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618833.31047.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618835.5661001.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>474.3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>473.9</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.4000000000000341</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731618835.5830579</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731618838.4212513</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618835.5830579.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618838.4212513.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>473.9</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>474.35</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.4500000000000455</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731618838.4372065</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731618840.4933348</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618838.4372065.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618840.4933348.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>474.35</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>474.65</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2999999999999545</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731618840.5102615</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731618841.7268584</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618840.5102615.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618841.7268584.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>474.65</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>474.4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.25</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731618841.7478008</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731618842.5818057</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618841.7478008.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618842.5818057.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>474.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>474.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731618842.5986505</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731618846.5122523</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618842.5986505.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731618846.5122523.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>474.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>476.3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.800000000000011</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -1267,95 +1367,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731618846.528235</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731618846.528235.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731618846.528235.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>476.3</v>
       </c>
-      <c r="J17" t="n">
-        <v>476.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>474.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-1.800000000000011</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731618857.1163776</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731618858.0575266</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731618857.1163776.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731618858.0575266.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>930.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>926.8</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>3.800000000000068</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731618859.3139305</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731618861.474247</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731618859.3139305.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731618861.474247.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>928.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>931</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-2.799999999999955</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731618861.490204</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731618863.8157566</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731618861.490204.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731618863.8157566.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>931</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>930.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731618863.8327115</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731618867.9072485</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731618863.8327115.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731618867.9072485.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>930.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>933.6</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-2.800000000000068</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731618867.924176</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731618871.353267</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731618867.924176.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731618871.353267.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>933.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>934.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1571,95 +1707,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731618872.219609</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731618872.219609.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731618872.219609.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>933.4</v>
       </c>
-      <c r="J23" t="n">
-        <v>933.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>930.8</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-2.600000000000023</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731618878.6151352</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731618880.3287265</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618878.6151352.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618880.3287265.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>129.7</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>130.08</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.3800000000000239</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731618880.3456817</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731618885.1816728</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618880.3456817.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618885.1816728.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>130.08</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>129.3</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.7800000000000011</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731618885.1986258</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731618888.397922</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618885.1986258.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618888.397922.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>129.3</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>129.18</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731618895.537918</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731618897.0449712</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618895.537918.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618897.0449712.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>130.18</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>130.1</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.08000000000001251</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731618897.0619278</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731618902.1965296</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618897.0619278.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618902.1965296.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>130.1</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>130.14</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731618902.2134852</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731618904.1096447</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618902.2134852.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618904.1096447.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>130.14</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>130.18</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.04000000000002046</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731618904.130562</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731618904.3941598</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618904.130562.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731618904.3941598.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>130.18</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>129.78</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731618908.9499571</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731618910.6118813</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618908.9499571.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618910.6118813.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>37.945</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>37.95</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731618910.6308389</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731618911.7684808</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618910.6308389.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618911.7684808.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>37.95</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>37.78</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731618913.3080444</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731618914.90343</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618913.3080444.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618914.90343.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>37.81</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>37.795</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731618914.9205377</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731618915.9502897</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618914.9205377.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618915.9502897.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>37.795</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>37.765</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731618915.9672434</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731618918.4993136</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618915.9672434.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618918.4993136.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>37.765</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>37.9</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.134999999999998</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731618918.521254</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731618920.6436164</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618918.521254.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618920.6436164.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>37.9</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>37.89</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731618920.6605713</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731618924.4058168</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618920.6605713.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618924.4058168.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>37.89</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>37.955</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.06499999999999773</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731618924.4227679</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731618926.0588431</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618924.4227679.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618926.0588431.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>37.955</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>37.965</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.01000000000000512</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2395,51 +2627,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731618926.076795</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731618928.1685574</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618926.076795.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731618928.1685574.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>37.965</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>38.03</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.06499999999999773</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2447,95 +2685,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731618928.1865358</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731618928.1865358.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731618928.1865358.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>38.03</v>
       </c>
-      <c r="J40" t="n">
-        <v>38.03</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>37.975</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.05499999999999972</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731618938.1840334</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731618941.6286507</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731618938.1840334.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731618941.6286507.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1182.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1184.2</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>2</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731618941.6457245</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731618944.5772238</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731618941.6457245.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731618944.5772238.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1184.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1181.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731618955.3408713</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731618955.7113948</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731618955.3408713.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731618955.7113948.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1188.6</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1190.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2647,95 +2909,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731618960.809039</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731618960.809039.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731618960.809039.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1190</v>
       </c>
-      <c r="J44" t="n">
-        <v>1190</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1190.8</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731618966.337114</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731618968.1718695</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618966.337114.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618968.1718695.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>78.98</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>79.09999999999999</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731618970.905445</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731618977.1749313</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618970.905445.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618977.1749313.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>78.3</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>78.15000000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1499999999999915</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2795,51 +3075,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731618977.7185383</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731618980.9248056</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618977.7185383.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618980.9248056.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>78.36</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>78.56</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2847,51 +3133,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731618980.9417324</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731618984.899044</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618980.9417324.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618984.899044.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>78.56</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>78.73</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2899,51 +3191,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731618986.023093</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731618989.4454656</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618986.023093.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618989.4454656.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>78.69</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>78.69</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2951,51 +3249,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731618989.4624472</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731618990.0852544</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618989.4624472.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731618990.0852544.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>78.69</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>78.52</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3003,51 +3307,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731618990.730816</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731618991.3889098</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731618990.730816.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731618991.3889098.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>103.62</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>103.27</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3500000000000085</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3055,51 +3365,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731618992.6303132</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731618994.827851</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731618992.6303132.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731618994.827851.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>103.49</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>103.09</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -3107,51 +3423,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731618999.0360808</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731619004.2888975</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731618999.0360808.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619004.2888975.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>102.46</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>102.38</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3159,51 +3481,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731619005.372051</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731619009.1201346</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619005.372051.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619009.1201346.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>102.57</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>102.79</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.2200000000000131</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -3211,51 +3539,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731619009.1371205</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731619012.8756933</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619009.1371205.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619012.8756933.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>102.79</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>103.13</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.3399999999999892</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -3263,95 +3597,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731619013.8776472</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731619013.8776472.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731619013.8776472.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>103</v>
       </c>
-      <c r="J56" t="n">
-        <v>103</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>102.98</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731619019.030129</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731619021.1713443</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619019.030129.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619021.1713443.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>2752.75</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>2755.05</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-2.300000000000182</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3359,51 +3705,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731619021.1882882</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731619023.9467416</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619021.1882882.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619023.9467416.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>2755.05</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>2754.4</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.6500000000000909</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3411,51 +3763,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731619023.9646935</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731619024.8700466</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619023.9646935.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619024.8700466.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>2754.4</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>2746.55</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>7.849999999999909</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3463,51 +3821,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731619031.9190197</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731619034.2626061</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619031.9190197.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619034.2626061.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>2743.9</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>2744.75</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.8499999999999091</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3515,51 +3879,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731619034.2805576</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731619037.7241087</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619034.2805576.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619037.7241087.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>2744.75</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>2750.95</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-6.199999999999818</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3567,51 +3937,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731619037.7420924</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731619039.0446439</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619037.7420924.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619039.0446439.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>2750.95</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>2749</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-1.949999999999818</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -3619,51 +3995,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731619039.0625854</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731619042.2022266</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619039.0625854.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619042.2022266.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>2749</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>2749.6</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.5999999999999091</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3671,51 +4053,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731619042.2201788</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731619043.3687134</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619042.2201788.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619043.3687134.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>2749.6</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>2754</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>4.400000000000091</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3723,51 +4111,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731619046.2925782</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731619046.627301</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619046.2925782.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619046.627301.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>2747.6</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>2741</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>6.599999999999909</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3775,95 +4169,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731619047.3220675</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731619047.3220675.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731619047.3220675.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>2745.15</v>
       </c>
-      <c r="J66" t="n">
-        <v>2745.15</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>2744.45</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7000000000002728</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731619049.0258536</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731619054.070622</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619049.0258536.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619054.070622.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>10.824</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>10.858</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.0340000000000007</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -3871,51 +4277,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731619055.2560894</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731619059.097132</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619055.2560894.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619059.097132.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>10.866</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>10.862</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.003999999999999559</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3923,51 +4335,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731619059.1140869</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731619062.3531137</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619059.1140869.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619062.3531137.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>10.862</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>10.848</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.01399999999999935</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3975,51 +4393,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731619062.3700466</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731619065.324035</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619062.3700466.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619065.324035.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>10.848</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>10.842</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4027,51 +4451,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731619065.3419874</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731619068.6910763</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619065.3419874.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619068.6910763.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>10.842</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>10.848</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4079,51 +4509,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731619068.709056</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731619072.2013292</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619068.709056.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619072.2013292.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>10.848</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>10.842</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4131,51 +4567,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731619072.2172875</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731619073.615238</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619072.2172875.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/APTK1731619073.615238.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>10.842</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>10.87</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.02799999999999869</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4183,51 +4625,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731619074.6868875</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731619079.0295224</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619074.6868875.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619079.0295224.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>481.1</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>481.6</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -4235,51 +4683,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731619079.0474744</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731619080.124627</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619079.0474744.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619080.124627.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>481.6</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>485</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -4287,51 +4741,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731619080.977829</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731619082.6256099</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619080.977829.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619082.6256099.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>483</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>480.7</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-2.300000000000011</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -4339,51 +4799,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731619082.6435347</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731619086.7000241</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619082.6435347.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619086.7000241.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>480.7</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>482.2</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -4391,51 +4857,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731619086.7169824</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731619091.4156618</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619086.7169824.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619091.4156618.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>482.2</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>482.9</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.6999999999999886</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4443,51 +4915,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731619093.4186897</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731619098.9462543</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619093.4186897.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619098.9462543.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>486.3</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>485.4</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.9000000000000341</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -4495,51 +4973,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731619098.9641788</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731619101.114326</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619098.9641788.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731619101.114326.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>485.4</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>483.3</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>2.099999999999966</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -4547,95 +5031,107 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731619101.627671</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/PIKK1731619101.627671.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/PIKK1731619101.627671.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>484.7</v>
       </c>
-      <c r="J81" t="n">
-        <v>484.7</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>484.2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731619105.7150574</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731619111.0361483</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619105.7150574.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619111.0361483.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>575.4</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>575.8</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4643,51 +5139,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731619124.0835328</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731619125.0757413</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619124.0835328.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619125.0757413.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>580.9</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>583.6</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>2.700000000000045</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -4695,44 +5197,50 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731619126.502817</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731619126.502817.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731619126.502817.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>582.6</v>
       </c>
-      <c r="J84" t="n">
-        <v>582.6</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>575.7</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-6.899999999999977</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-1.18</v>
       </c>
     </row>
   </sheetData>
@@ -4793,19 +5301,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.300000000000182</v>
+        <v>-5.100000000000193</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3000000000000165</v>
+        <v>-0.4636363636363812</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.07</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="3">
@@ -4815,19 +5323,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1049999999999827</v>
+        <v>-0.1599999999999824</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01049999999999827</v>
+        <v>-0.01599999999999824</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.28</v>
+        <v>-0.42</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
@@ -4837,16 +5345,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>8.700000000000273</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.8700000000000273</v>
       </c>
       <c r="E4" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="F4" t="n">
         <v>0.03</v>
@@ -4859,19 +5367,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999998863</v>
+        <v>1.499999999999886</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1249999999999858</v>
+        <v>0.1874999999999858</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2100000000000001</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -4925,19 +5433,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9499999999999744</v>
+        <v>0.9299999999999784</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1583333333333291</v>
+        <v>0.1549999999999964</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
@@ -4947,19 +5455,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.399999999999977</v>
+        <v>-4</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2333333333333295</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.15</v>
+        <v>-0.4299999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,19 +5499,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6.200000000000045</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.75</v>
+        <v>1.550000000000011</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="F11" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="12">
@@ -5035,19 +5543,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.100000000000023</v>
+        <v>-3.799999999999955</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>1.033333333333341</v>
+        <v>-1.266666666666652</v>
       </c>
       <c r="E13" t="n">
-        <v>0.53</v>
+        <v>-0.65</v>
       </c>
       <c r="F13" t="n">
-        <v>0.18</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="14">
